--- a/Media/策划还原案/字典表设计/兵种字典表/1长弓兵等级.xlsx
+++ b/Media/策划还原案/字典表设计/兵种字典表/1长弓兵等级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="3640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10120" yWindow="6460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>主技能</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +143,26 @@
   </si>
   <si>
     <t>changevalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -524,7 +559,7 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,23 +575,41 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,109 +620,115 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="F18">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="F26">
+        <v>30003</v>
       </c>
     </row>
   </sheetData>
